--- a/ExperimentFolder_v23.9.19/Paradigma/Resources/StimuliFiles/picture_list_pos.xlsx
+++ b/ExperimentFolder_v23.9.19/Paradigma/Resources/StimuliFiles/picture_list_pos.xlsx
@@ -33,9 +33,6 @@
     <t>three dogs</t>
   </si>
   <si>
-    <t>rabit</t>
-  </si>
-  <si>
     <t>group of apes</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>p_new_size</t>
+  </si>
+  <si>
+    <t>rabbit</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,45 +513,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>1440</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1460</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1463</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>1710</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1750</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -738,16 +738,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1811</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
@@ -776,16 +776,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1942</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -814,16 +814,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>2040</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
@@ -852,16 +852,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2057</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>0</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2070</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
@@ -928,16 +928,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>2091</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
@@ -966,16 +966,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>2154</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
@@ -1004,16 +1004,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2304</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2311</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>0</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>2332</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>0</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2550</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>0</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2655</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
@@ -1194,16 +1194,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>4626</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>5760</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
@@ -1270,16 +1270,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>5831</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
@@ -1308,16 +1308,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>5833</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>0</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>1340</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
@@ -1384,16 +1384,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>7325</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>0</v>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>7502</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>0</v>
@@ -1460,16 +1460,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>8330</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>0</v>
@@ -1498,16 +1498,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>8380</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
@@ -1536,16 +1536,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>8497</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
@@ -1574,16 +1574,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>1601</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>0</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>2005</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>0</v>
@@ -1650,16 +1650,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>2010</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>0</v>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>2058</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
         <v>0</v>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>2071</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>0</v>
